--- a/data/groups.xlsx
+++ b/data/groups.xlsx
@@ -26,19 +26,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>testnamet1AQ</t>
-  </si>
-  <si>
-    <t>testnameAS</t>
-  </si>
-  <si>
-    <t>testnameNxVTg</t>
-  </si>
-  <si>
-    <t>testnameYnig</t>
-  </si>
-  <si>
-    <t>testnames</t>
+    <t>testname</t>
+  </si>
+  <si>
+    <t>testname1HY S Zqo</t>
+  </si>
+  <si>
+    <t>testname 4</t>
+  </si>
+  <si>
+    <t>testnameez B0hP</t>
+  </si>
+  <si>
+    <t>testnameHI</t>
   </si>
 </sst>
 </file>

--- a/data/groups.xlsx
+++ b/data/groups.xlsx
@@ -26,19 +26,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
+    <t>testnameZ2XNX</t>
+  </si>
+  <si>
+    <t>testname 6n</t>
+  </si>
+  <si>
     <t>testname</t>
   </si>
   <si>
-    <t>testname1HY S Zqo</t>
-  </si>
-  <si>
-    <t>testname 4</t>
-  </si>
-  <si>
-    <t>testnameez B0hP</t>
-  </si>
-  <si>
-    <t>testnameHI</t>
+    <t>testname iI j7LG</t>
+  </si>
+  <si>
+    <t>testnameJ9</t>
   </si>
 </sst>
 </file>

--- a/data/groups.xlsx
+++ b/data/groups.xlsx
@@ -26,19 +26,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>testnameZ2XNX</t>
-  </si>
-  <si>
-    <t>testname 6n</t>
+    <t>testnamee9</t>
   </si>
   <si>
     <t>testname</t>
   </si>
   <si>
-    <t>testname iI j7LG</t>
-  </si>
-  <si>
-    <t>testnameJ9</t>
+    <t>testnamer</t>
+  </si>
+  <si>
+    <t>testnameUaiVasA1</t>
+  </si>
+  <si>
+    <t>testnamejA 8J</t>
   </si>
 </sst>
 </file>

--- a/data/groups.xlsx
+++ b/data/groups.xlsx
@@ -26,19 +26,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>testnamee9</t>
-  </si>
-  <si>
-    <t>testname</t>
-  </si>
-  <si>
-    <t>testnamer</t>
-  </si>
-  <si>
-    <t>testnameUaiVasA1</t>
-  </si>
-  <si>
-    <t>testnamejA 8J</t>
+    <t>testnameS8i 9</t>
+  </si>
+  <si>
+    <t>testnameMhHE</t>
+  </si>
+  <si>
+    <t>testnameztHgG</t>
+  </si>
+  <si>
+    <t>testname5Auz</t>
+  </si>
+  <si>
+    <t>testnameW LmX</t>
   </si>
 </sst>
 </file>
@@ -357,34 +357,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A6"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
